--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.101019.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Fall.101019.xlsx_with_dialog_acts.xlsx
@@ -1269,12 +1269,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1725,12 +1725,12 @@
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2029,12 +2029,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2257,12 +2257,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3101,12 +3101,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4397,12 @@
       <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5081,12 +5081,12 @@
       <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5157,12 +5157,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5921,12 +5921,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5959,12 +5959,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7365,12 +7365,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7441,12 +7441,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7517,12 +7517,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8391,12 +8391,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8505,12 +8505,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8543,12 +8543,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8809,12 +8809,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8961,12 +8961,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9037,12 +9037,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9531,12 +9531,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9569,12 +9569,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9645,12 +9645,12 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9797,12 +9797,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10139,12 +10139,12 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10215,12 +10215,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10523,12 +10523,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10751,12 +10751,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10865,12 +10865,12 @@
       <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11135,12 +11135,12 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11363,12 +11363,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11477,12 +11477,12 @@
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11515,12 +11515,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11975,12 +11975,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12317,12 +12317,12 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12393,12 +12393,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12697,12 +12697,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13457,12 +13457,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13533,12 +13533,12 @@
       <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J344" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13609,12 +13609,12 @@
       <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13727,12 +13727,12 @@
       </c>
       <c r="I349" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13993,12 +13993,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14107,12 +14107,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14183,12 +14183,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14297,12 +14297,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14487,12 +14487,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14943,12 +14943,12 @@
       <c r="H381" t="inlineStr"/>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15441,12 +15441,12 @@
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15479,12 +15479,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15593,12 +15593,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15707,12 +15707,12 @@
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16353,12 +16353,12 @@
       <c r="H418" t="inlineStr"/>
       <c r="I418" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16889,12 +16889,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16927,12 +16927,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17079,12 +17079,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17345,12 +17345,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17421,12 +17421,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17801,12 +17801,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18029,12 +18029,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18523,12 +18523,12 @@
       <c r="H475" t="inlineStr"/>
       <c r="I475" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J475" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
